--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/17 Aria Khal/CS of Aria khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/17 Aria Khal/CS of Aria khal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Long section Aria khal" sheetId="17" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Aria khal'!$A$1:$AB$46</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -994,24 +994,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1062,6 +1044,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1070,6 +1070,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,14 +1096,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1509,11 +1509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197797376"/>
-        <c:axId val="197799936"/>
+        <c:axId val="42008960"/>
+        <c:axId val="43467520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197797376"/>
+        <c:axId val="42008960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197799936"/>
+        <c:crossAx val="43467520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197799936"/>
+        <c:axId val="43467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197797376"/>
+        <c:crossAx val="42008960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2046,11 +2046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201879552"/>
-        <c:axId val="201881088"/>
+        <c:axId val="214507904"/>
+        <c:axId val="214509440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201879552"/>
+        <c:axId val="214507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2096,12 +2096,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201881088"/>
+        <c:crossAx val="214509440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201881088"/>
+        <c:axId val="214509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201879552"/>
+        <c:crossAx val="214507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2472,11 +2472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208214272"/>
-        <c:axId val="208224256"/>
+        <c:axId val="214684032"/>
+        <c:axId val="215261952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208214272"/>
+        <c:axId val="214684032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2522,12 +2522,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208224256"/>
+        <c:crossAx val="215261952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208224256"/>
+        <c:axId val="215261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,7 +2572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208214272"/>
+        <c:crossAx val="214684032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,11 +2886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208253696"/>
-        <c:axId val="208255232"/>
+        <c:axId val="215468672"/>
+        <c:axId val="239404160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208253696"/>
+        <c:axId val="215468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2936,12 +2936,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208255232"/>
+        <c:crossAx val="239404160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208255232"/>
+        <c:axId val="239404160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208253696"/>
+        <c:crossAx val="215468672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3288,11 +3288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208025088"/>
-        <c:axId val="208026624"/>
+        <c:axId val="242032640"/>
+        <c:axId val="242034176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208025088"/>
+        <c:axId val="242032640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3338,12 +3338,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208026624"/>
+        <c:crossAx val="242034176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208026624"/>
+        <c:axId val="242034176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208025088"/>
+        <c:crossAx val="242032640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3646,11 +3646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201546368"/>
-        <c:axId val="201552256"/>
+        <c:axId val="247028736"/>
+        <c:axId val="263109632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201546368"/>
+        <c:axId val="247028736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3696,12 +3696,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201552256"/>
+        <c:crossAx val="263109632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201552256"/>
+        <c:axId val="263109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201546368"/>
+        <c:crossAx val="247028736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3998,11 +3998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201618560"/>
-        <c:axId val="201620096"/>
+        <c:axId val="42655744"/>
+        <c:axId val="42657280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201618560"/>
+        <c:axId val="42655744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4048,12 +4048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201620096"/>
+        <c:crossAx val="42657280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201620096"/>
+        <c:axId val="42657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +4098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201618560"/>
+        <c:crossAx val="42655744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4344,11 +4344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201662848"/>
-        <c:axId val="201664384"/>
+        <c:axId val="43473920"/>
+        <c:axId val="43479808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201662848"/>
+        <c:axId val="43473920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4394,12 +4394,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201664384"/>
+        <c:crossAx val="43479808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201664384"/>
+        <c:axId val="43479808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201662848"/>
+        <c:crossAx val="43473920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4690,11 +4690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201680768"/>
-        <c:axId val="201682304"/>
+        <c:axId val="43508480"/>
+        <c:axId val="43510016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201680768"/>
+        <c:axId val="43508480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4740,12 +4740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201682304"/>
+        <c:crossAx val="43510016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201682304"/>
+        <c:axId val="43510016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,7 +4790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201680768"/>
+        <c:crossAx val="43508480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5036,11 +5036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209129856"/>
-        <c:axId val="209131392"/>
+        <c:axId val="43531264"/>
+        <c:axId val="43533056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209129856"/>
+        <c:axId val="43531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5086,12 +5086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209131392"/>
+        <c:crossAx val="43533056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209131392"/>
+        <c:axId val="43533056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5136,7 +5136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209129856"/>
+        <c:crossAx val="43531264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5382,11 +5382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209164928"/>
-        <c:axId val="209170816"/>
+        <c:axId val="43546112"/>
+        <c:axId val="43547648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209164928"/>
+        <c:axId val="43546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5432,12 +5432,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209170816"/>
+        <c:crossAx val="43547648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209170816"/>
+        <c:axId val="43547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,7 +5482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209164928"/>
+        <c:crossAx val="43546112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5794,11 +5794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197856256"/>
-        <c:axId val="197858048"/>
+        <c:axId val="141579776"/>
+        <c:axId val="141593984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197856256"/>
+        <c:axId val="141579776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5844,12 +5844,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197858048"/>
+        <c:crossAx val="141593984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197858048"/>
+        <c:axId val="141593984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197856256"/>
+        <c:crossAx val="141579776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6140,11 +6140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209216640"/>
-        <c:axId val="209218176"/>
+        <c:axId val="141524992"/>
+        <c:axId val="141526528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209216640"/>
+        <c:axId val="141524992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6190,12 +6190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209218176"/>
+        <c:crossAx val="141526528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209218176"/>
+        <c:axId val="141526528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209216640"/>
+        <c:crossAx val="141524992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6486,11 +6486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209235328"/>
-        <c:axId val="209241216"/>
+        <c:axId val="141576448"/>
+        <c:axId val="141582336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209235328"/>
+        <c:axId val="141576448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6536,12 +6536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209241216"/>
+        <c:crossAx val="141582336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209241216"/>
+        <c:axId val="141582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6586,7 +6586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209235328"/>
+        <c:crossAx val="141576448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6820,11 +6820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208889728"/>
-        <c:axId val="208891264"/>
+        <c:axId val="141603584"/>
+        <c:axId val="141605120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208889728"/>
+        <c:axId val="141603584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6870,12 +6870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208891264"/>
+        <c:crossAx val="141605120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208891264"/>
+        <c:axId val="141605120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6920,7 +6920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208889728"/>
+        <c:crossAx val="141603584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7244,11 +7244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197871104"/>
-        <c:axId val="197872640"/>
+        <c:axId val="141682560"/>
+        <c:axId val="141684096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197871104"/>
+        <c:axId val="141682560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7294,12 +7294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197872640"/>
+        <c:crossAx val="141684096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197872640"/>
+        <c:axId val="141684096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,7 +7344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197871104"/>
+        <c:crossAx val="141682560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7674,11 +7674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197914624"/>
-        <c:axId val="197916160"/>
+        <c:axId val="142984320"/>
+        <c:axId val="142985856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197914624"/>
+        <c:axId val="142984320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7724,12 +7724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197916160"/>
+        <c:crossAx val="142985856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197916160"/>
+        <c:axId val="142985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7774,7 +7774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197914624"/>
+        <c:crossAx val="142984320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8118,11 +8118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200947584"/>
-        <c:axId val="200949120"/>
+        <c:axId val="145311616"/>
+        <c:axId val="145815808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200947584"/>
+        <c:axId val="145311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8168,12 +8168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200949120"/>
+        <c:crossAx val="145815808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200949120"/>
+        <c:axId val="145815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8218,7 +8218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200947584"/>
+        <c:crossAx val="145311616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8538,11 +8538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200969216"/>
-        <c:axId val="200987392"/>
+        <c:axId val="152758528"/>
+        <c:axId val="152821760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200969216"/>
+        <c:axId val="152758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8588,12 +8588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200987392"/>
+        <c:crossAx val="152821760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200987392"/>
+        <c:axId val="152821760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8638,7 +8638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200969216"/>
+        <c:crossAx val="152758528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8964,11 +8964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201098368"/>
-        <c:axId val="201099904"/>
+        <c:axId val="153234432"/>
+        <c:axId val="153254912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201098368"/>
+        <c:axId val="153234432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9014,12 +9014,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201099904"/>
+        <c:crossAx val="153254912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201099904"/>
+        <c:axId val="153254912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9064,7 +9064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201098368"/>
+        <c:crossAx val="153234432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9390,11 +9390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201026560"/>
-        <c:axId val="201028352"/>
+        <c:axId val="193136128"/>
+        <c:axId val="193333504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201026560"/>
+        <c:axId val="193136128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9440,12 +9440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201028352"/>
+        <c:crossAx val="193333504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201028352"/>
+        <c:axId val="193333504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9490,7 +9490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201026560"/>
+        <c:crossAx val="193136128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9810,11 +9810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201057792"/>
-        <c:axId val="201059328"/>
+        <c:axId val="206582144"/>
+        <c:axId val="206615296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201057792"/>
+        <c:axId val="206582144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9860,12 +9860,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201059328"/>
+        <c:crossAx val="206615296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201059328"/>
+        <c:axId val="206615296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9910,7 +9910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201057792"/>
+        <c:crossAx val="206582144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9984,7 +9984,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10027,7 +10027,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10065,7 +10065,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10103,7 +10103,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10146,7 +10146,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10184,7 +10184,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10222,7 +10222,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10260,7 +10260,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10298,7 +10298,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10336,7 +10336,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10374,7 +10374,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10412,7 +10412,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10450,7 +10450,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10493,7 +10493,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10626,7 +10626,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10778,7 +10778,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10934,7 +10934,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10972,7 +10972,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11010,7 +11010,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11048,7 +11048,7 @@
         <xdr:cNvPr id="5" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11086,7 +11086,7 @@
         <xdr:cNvPr id="6" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11124,7 +11124,7 @@
         <xdr:cNvPr id="7" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11162,7 +11162,7 @@
         <xdr:cNvPr id="8" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11200,7 +11200,7 @@
         <xdr:cNvPr id="9" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11238,7 +11238,7 @@
         <xdr:cNvPr id="10" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11553,7 +11553,7 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M21" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="M1" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="R34" sqref="R34:AB37"/>
     </sheetView>
   </sheetViews>
@@ -11898,13 +11898,13 @@
       <c r="A1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
       <c r="I1" s="79"/>
@@ -12183,21 +12183,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
       <c r="AB7" s="95"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -12303,77 +12303,77 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
-      <c r="R33" s="122" t="s">
+      <c r="R33" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="124"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="118"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
-      <c r="R34" s="125" t="s">
+      <c r="R34" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="127"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="121"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="130"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="123"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="124"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="129"/>
-      <c r="V36" s="129"/>
-      <c r="W36" s="129"/>
-      <c r="X36" s="129"/>
-      <c r="Y36" s="129"/>
-      <c r="Z36" s="129"/>
-      <c r="AA36" s="129"/>
-      <c r="AB36" s="130"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="123"/>
+      <c r="W36" s="123"/>
+      <c r="X36" s="123"/>
+      <c r="Y36" s="123"/>
+      <c r="Z36" s="123"/>
+      <c r="AA36" s="123"/>
+      <c r="AB36" s="124"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="132"/>
-      <c r="U37" s="132"/>
-      <c r="V37" s="132"/>
-      <c r="W37" s="132"/>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="132"/>
-      <c r="Z37" s="132"/>
-      <c r="AA37" s="132"/>
-      <c r="AB37" s="133"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="126"/>
+      <c r="Y37" s="126"/>
+      <c r="Z37" s="126"/>
+      <c r="AA37" s="126"/>
+      <c r="AB37" s="127"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
@@ -12433,84 +12433,84 @@
     </row>
     <row r="42" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
-      <c r="R42" s="134" t="s">
+      <c r="R42" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="S42" s="135"/>
-      <c r="T42" s="135"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="134" t="s">
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="134" t="s">
+      <c r="W42" s="129"/>
+      <c r="X42" s="129"/>
+      <c r="Y42" s="130"/>
+      <c r="Z42" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="AA42" s="135"/>
-      <c r="AB42" s="136"/>
+      <c r="AA42" s="129"/>
+      <c r="AB42" s="130"/>
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
-      <c r="R43" s="113" t="s">
+      <c r="R43" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="115"/>
-      <c r="V43" s="113" t="s">
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
+      <c r="U43" s="133"/>
+      <c r="V43" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="115"/>
-      <c r="Z43" s="113" t="s">
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="133"/>
+      <c r="Z43" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="115"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="133"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
-      <c r="R44" s="113" t="s">
+      <c r="R44" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="113" t="s">
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="133"/>
+      <c r="V44" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
-      <c r="Y44" s="115"/>
-      <c r="Z44" s="113" t="s">
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="133"/>
+      <c r="Z44" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="114"/>
-      <c r="AB44" s="115"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="133"/>
       <c r="AC44" s="106"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
-      <c r="R45" s="113" t="s">
+      <c r="R45" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="113" t="s">
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="133"/>
+      <c r="V45" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="W45" s="114"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="115"/>
-      <c r="Z45" s="113" t="s">
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="133"/>
+      <c r="Z45" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="AA45" s="114"/>
-      <c r="AB45" s="115"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="133"/>
       <c r="AC45" s="106"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12531,23 +12531,23 @@
       <c r="O46" s="108"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
-      <c r="R46" s="116" t="s">
+      <c r="R46" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="116" t="s">
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="118"/>
-      <c r="Z46" s="116" t="s">
+      <c r="W46" s="135"/>
+      <c r="X46" s="135"/>
+      <c r="Y46" s="136"/>
+      <c r="Z46" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="AA46" s="117"/>
-      <c r="AB46" s="118"/>
+      <c r="AA46" s="135"/>
+      <c r="AB46" s="136"/>
       <c r="AC46" s="109"/>
     </row>
     <row r="52" spans="18:28" x14ac:dyDescent="0.2">
@@ -12591,6 +12591,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R33:AB33"/>
@@ -12598,18 +12610,6 @@
     <mergeCell ref="R42:U42"/>
     <mergeCell ref="V42:Y42"/>
     <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -16214,21 +16214,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -16267,10 +16267,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="149">
+      <c r="D3" s="141">
         <v>0</v>
       </c>
-      <c r="E3" s="149"/>
+      <c r="E3" s="141"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -16994,11 +16994,11 @@
       <c r="K22" s="19"/>
       <c r="L22" s="16"/>
       <c r="M22" s="19"/>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="143"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="145"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
@@ -17060,11 +17060,11 @@
       <c r="L25" s="16"/>
       <c r="M25" s="19"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="144" t="s">
+      <c r="O25" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="146"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="148"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
@@ -17226,10 +17226,10 @@
       <c r="E33" s="13"/>
       <c r="F33" s="16"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="147" t="s">
+      <c r="H33" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="147"/>
+      <c r="I33" s="142"/>
       <c r="J33" s="19">
         <f>G27</f>
         <v>27.837500000000006</v>
@@ -17254,10 +17254,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="149">
+      <c r="D34" s="141">
         <v>0.1</v>
       </c>
-      <c r="E34" s="149"/>
+      <c r="E34" s="141"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -18125,10 +18125,10 @@
       <c r="E64" s="13"/>
       <c r="F64" s="16"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="147" t="s">
+      <c r="H64" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="147"/>
+      <c r="I64" s="142"/>
       <c r="J64" s="19">
         <f>G58</f>
         <v>29.199500000000008</v>
@@ -18153,10 +18153,10 @@
         <v>7</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="149">
+      <c r="D65" s="141">
         <v>0.2</v>
       </c>
-      <c r="E65" s="149"/>
+      <c r="E65" s="141"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -18953,10 +18953,10 @@
       <c r="E90" s="13"/>
       <c r="F90" s="16"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="147" t="s">
+      <c r="H90" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="147"/>
+      <c r="I90" s="142"/>
       <c r="J90" s="19">
         <f>G89</f>
         <v>19.9985</v>
@@ -19000,10 +19000,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="149">
+      <c r="D92" s="141">
         <v>0.3</v>
       </c>
-      <c r="E92" s="149"/>
+      <c r="E92" s="141"/>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
@@ -19801,10 +19801,10 @@
       <c r="E117" s="13"/>
       <c r="F117" s="16"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="147" t="s">
+      <c r="H117" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="147"/>
+      <c r="I117" s="142"/>
       <c r="J117" s="19">
         <f>G116</f>
         <v>17.6935</v>
@@ -19848,10 +19848,10 @@
         <v>7</v>
       </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="149">
+      <c r="D119" s="141">
         <v>0.35</v>
       </c>
-      <c r="E119" s="149"/>
+      <c r="E119" s="141"/>
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
@@ -20648,10 +20648,10 @@
       <c r="E144" s="13"/>
       <c r="F144" s="16"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="147" t="s">
+      <c r="H144" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I144" s="147"/>
+      <c r="I144" s="142"/>
       <c r="J144" s="19">
         <f>G143</f>
         <v>20.418000000000003</v>
@@ -20676,10 +20676,10 @@
         <v>7</v>
       </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="149">
+      <c r="D145" s="141">
         <v>0.4</v>
       </c>
-      <c r="E145" s="149"/>
+      <c r="E145" s="141"/>
       <c r="J145" s="13"/>
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
@@ -21477,10 +21477,10 @@
       <c r="E170" s="13"/>
       <c r="F170" s="16"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="147" t="s">
+      <c r="H170" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="147"/>
+      <c r="I170" s="142"/>
       <c r="J170" s="19">
         <f>G169</f>
         <v>21.417299999999997</v>
@@ -21505,10 +21505,10 @@
         <v>7</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="149">
+      <c r="D171" s="141">
         <v>0.45</v>
       </c>
-      <c r="E171" s="149"/>
+      <c r="E171" s="141"/>
       <c r="J171" s="13"/>
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
@@ -22318,10 +22318,10 @@
       <c r="E196" s="13"/>
       <c r="F196" s="16"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="147" t="s">
+      <c r="H196" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I196" s="147"/>
+      <c r="I196" s="142"/>
       <c r="J196" s="19">
         <f>G195</f>
         <v>17.423000000000002</v>
@@ -22346,10 +22346,10 @@
         <v>7</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="149">
+      <c r="D197" s="141">
         <v>0.5</v>
       </c>
-      <c r="E197" s="149"/>
+      <c r="E197" s="141"/>
       <c r="J197" s="13"/>
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
@@ -23120,10 +23120,10 @@
       <c r="E222" s="13"/>
       <c r="F222" s="16"/>
       <c r="G222" s="19"/>
-      <c r="H222" s="147" t="s">
+      <c r="H222" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I222" s="147"/>
+      <c r="I222" s="142"/>
       <c r="J222" s="19">
         <f>G221</f>
         <v>12.076999999999998</v>
@@ -23150,8 +23150,8 @@
       <c r="E223" s="19"/>
       <c r="F223" s="16"/>
       <c r="G223" s="19"/>
-      <c r="H223" s="147"/>
-      <c r="I223" s="147"/>
+      <c r="H223" s="142"/>
+      <c r="I223" s="142"/>
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="16"/>
@@ -23182,10 +23182,10 @@
         <v>7</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="149">
+      <c r="D225" s="141">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E225" s="149"/>
+      <c r="E225" s="141"/>
       <c r="J225" s="13"/>
       <c r="K225" s="13"/>
       <c r="L225" s="13"/>
@@ -23985,10 +23985,10 @@
       <c r="C253" s="52"/>
       <c r="D253" s="52"/>
       <c r="E253" s="46"/>
-      <c r="F253" s="147" t="s">
+      <c r="F253" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G253" s="147"/>
+      <c r="G253" s="142"/>
       <c r="H253" s="59">
         <f>G251</f>
         <v>17.199399999999997</v>
@@ -24077,30 +24077,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="I172:M172"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="I226:M226"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="I198:M198"/>
-    <mergeCell ref="H222:I222"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="F253:G253"/>
@@ -24117,6 +24093,30 @@
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="I172:M172"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="I226:M226"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="I198:M198"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="H170:I170"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -25009,10 +25009,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:V859"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="X158" sqref="X158"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25469,10 +25469,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="149">
+      <c r="D3" s="141">
         <v>0</v>
       </c>
-      <c r="E3" s="149"/>
+      <c r="E3" s="141"/>
       <c r="J3" s="64"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
@@ -26172,10 +26172,10 @@
       <c r="E21" s="64"/>
       <c r="F21" s="63"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="147"/>
+      <c r="I21" s="142"/>
       <c r="J21" s="62" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26200,10 +26200,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="149">
+      <c r="D22" s="141">
         <v>0.1</v>
       </c>
-      <c r="E22" s="149"/>
+      <c r="E22" s="141"/>
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
@@ -26852,10 +26852,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="149">
+      <c r="D40" s="141">
         <v>0.2</v>
       </c>
-      <c r="E40" s="149"/>
+      <c r="E40" s="141"/>
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
       <c r="L40" s="64"/>
@@ -27605,10 +27605,10 @@
         <v>7</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="149">
+      <c r="D63" s="141">
         <v>0.3</v>
       </c>
-      <c r="E63" s="149"/>
+      <c r="E63" s="141"/>
       <c r="J63" s="64"/>
       <c r="K63" s="64"/>
       <c r="L63" s="64"/>
@@ -28218,10 +28218,10 @@
         <v>7</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="149">
+      <c r="D80" s="141">
         <v>0.35</v>
       </c>
-      <c r="E80" s="149"/>
+      <c r="E80" s="141"/>
       <c r="J80" s="64"/>
       <c r="K80" s="64"/>
       <c r="L80" s="64"/>
@@ -28848,10 +28848,10 @@
         <v>7</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="149">
+      <c r="D96" s="141">
         <v>0.4</v>
       </c>
-      <c r="E96" s="149"/>
+      <c r="E96" s="141"/>
       <c r="J96" s="64"/>
       <c r="K96" s="64"/>
       <c r="L96" s="64"/>
@@ -29466,10 +29466,10 @@
         <v>7</v>
       </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="149">
+      <c r="D112" s="141">
         <v>0.45</v>
       </c>
-      <c r="E112" s="149"/>
+      <c r="E112" s="141"/>
       <c r="J112" s="64"/>
       <c r="K112" s="64"/>
       <c r="L112" s="64"/>
@@ -30109,10 +30109,10 @@
         <v>7</v>
       </c>
       <c r="C128" s="1"/>
-      <c r="D128" s="149">
+      <c r="D128" s="141">
         <v>0.5</v>
       </c>
-      <c r="E128" s="149"/>
+      <c r="E128" s="141"/>
       <c r="J128" s="64"/>
       <c r="K128" s="64"/>
       <c r="L128" s="64"/>
@@ -30716,10 +30716,10 @@
         <v>7</v>
       </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="149">
+      <c r="D145" s="141">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E145" s="149"/>
+      <c r="E145" s="141"/>
       <c r="J145" s="64"/>
       <c r="K145" s="64"/>
       <c r="L145" s="64"/>
@@ -31509,10 +31509,10 @@
       <c r="C173" s="52"/>
       <c r="D173" s="52"/>
       <c r="E173" s="46"/>
-      <c r="F173" s="147" t="s">
+      <c r="F173" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G173" s="147"/>
+      <c r="G173" s="142"/>
       <c r="H173" s="62">
         <f>G171</f>
         <v>17.199399999999997</v>
@@ -31599,8 +31599,683 @@
       <c r="I178" s="49"/>
       <c r="J178" s="5"/>
     </row>
+    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="I146:M146"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F173:G173"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D128:E128"/>
@@ -31617,14 +32292,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="I23:M23"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="I146:M146"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
